--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1889.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1889.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.307040784168041</v>
+        <v>1.370830059051514</v>
       </c>
       <c r="B1">
-        <v>2.831546133549154</v>
+        <v>1.95443594455719</v>
       </c>
       <c r="C1">
-        <v>4.200452275229538</v>
+        <v>2.95820689201355</v>
       </c>
       <c r="D1">
-        <v>2.352366188404407</v>
+        <v>3.71523380279541</v>
       </c>
       <c r="E1">
-        <v>0.8520877476312965</v>
+        <v>1.005772590637207</v>
       </c>
     </row>
   </sheetData>
